--- a/Luban/Configs/Datas/BuffDatas/BaseBuffDefine.xlsx
+++ b/Luban/Configs/Datas/BuffDatas/BaseBuffDefine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\BuffDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248ABC01-7282-47FC-A646-C03B6584B0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1FC1A9-CADD-4A30-820C-147BAB76F0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="900" windowWidth="38670" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <t>(list#sep=,),string</t>
   </si>
   <si>
-    <t>可选构造参数列表</t>
+    <t>可选构造参数列表(仅提示用)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -239,12 +239,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -259,15 +274,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -548,7 +563,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,117 +581,117 @@
     <col min="11" max="11" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="b">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="b">
@@ -688,24 +703,24 @@
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="1"/>
       <c r="D5" t="b">
         <v>1</v>
       </c>
@@ -718,193 +733,193 @@
       <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="1"/>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="1"/>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="1"/>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="1"/>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Luban/Configs/Datas/BuffDatas/BaseBuffDefine.xlsx
+++ b/Luban/Configs/Datas/BuffDatas/BaseBuffDefine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\BuffDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1FC1A9-CADD-4A30-820C-147BAB76F0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25800637-A061-44CE-89AA-92CABFD42B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="900" windowWidth="38670" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -166,6 +166,14 @@
   </si>
   <si>
     <t>可选构造参数列表(仅提示用)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.RoundTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +223,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -272,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -283,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -563,7 +581,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,9 +593,9 @@
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
     <col min="11" max="11" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -639,13 +657,13 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>36</v>
@@ -739,6 +757,9 @@
       <c r="I5" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="J5" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="K5" s="2" t="s">
         <v>33</v>
       </c>
@@ -760,8 +781,14 @@
       <c r="G6" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="H6" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="I6" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>35</v>
@@ -784,6 +811,9 @@
       <c r="G7" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="H7" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="I7" s="2" t="b">
         <v>1</v>
       </c>
@@ -809,8 +839,14 @@
       <c r="G8" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="H8" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="I8" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -830,6 +866,9 @@
       </c>
       <c r="G9" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="I9" s="2" t="b">
         <v>1</v>

--- a/Luban/Configs/Datas/BuffDatas/BaseBuffDefine.xlsx
+++ b/Luban/Configs/Datas/BuffDatas/BaseBuffDefine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\BuffDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25800637-A061-44CE-89AA-92CABFD42B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5541513B-E880-4AF7-946C-6F15AD936958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -581,7 +581,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -708,7 +708,9 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
@@ -738,7 +740,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
@@ -768,7 +772,9 @@
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
@@ -798,7 +804,9 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
@@ -826,7 +834,9 @@
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
@@ -854,7 +864,9 @@
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
